--- a/Release 1/Experience calculations.xlsx
+++ b/Release 1/Experience calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\CI301-repo\CI301\Release 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B45C74-9A0A-41E8-8FD3-0F425DBFA9D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9A5DB-3E09-46B2-965E-BF260BA3182A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="720" windowWidth="28200" windowHeight="14010" xr2:uid="{9371FE3D-D19C-4D76-986F-8A3D7B69F3C1}"/>
+    <workbookView xWindow="2955" yWindow="810" windowWidth="22395" windowHeight="12030" xr2:uid="{9371FE3D-D19C-4D76-986F-8A3D7B69F3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E92AB9-02FB-4B51-8996-AF485FDB350E}">
   <dimension ref="B2:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>140</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E5:E33" si="2">D16 * D16</f>
+        <f t="shared" ref="E16:E33" si="2">D16 * D16</f>
         <v>19600</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>320</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E5:E68" si="3">D34 * D34</f>
+        <f t="shared" ref="E34:E68" si="3">D34 * D34</f>
         <v>102400</v>
       </c>
     </row>
